--- a/P6/Graph.xlsx
+++ b/P6/Graph.xlsx
@@ -93,6 +93,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -102,6 +132,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -989,16 +1030,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1292,10 +1333,13 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/P6/Graph.xlsx
+++ b/P6/Graph.xlsx
@@ -19,12 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Size</t>
   </si>
   <si>
-    <t>Average(ms)</t>
+    <t>Quick sort random</t>
+  </si>
+  <si>
+    <t>Selection sort random</t>
+  </si>
+  <si>
+    <t>Quick sort reversed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selection sort reversed</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average(ms)</c:v>
+                  <c:v>Quick sort random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -157,71 +166,68 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50000</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80000</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90000</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -229,72 +235,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.79</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.38</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.11</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.41</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.21</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.75</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.36</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.13</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.64</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2899999999999991</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7799999999999994</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.44</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.11</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.83</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.31</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,6 +306,519 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-763F-47A2-95E7-ADF44EE50991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection sort random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>324.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>823.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1047.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1293.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1654.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1877.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2201.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2629.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2977.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3441.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3812.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4350.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4849.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5293.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D68-4323-9498-C135074E4105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick sort reversed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D68-4323-9498-C135074E4105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Selection sort reversed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1433.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2113.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3809.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4896.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5955.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6984.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8102.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9339.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10466</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11788.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13037.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14393.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15766.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17102.900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D68-4323-9498-C135074E4105}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -390,6 +906,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -433,6 +1004,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1030,16 +1632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1330,191 +1932,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>13.6</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>52.4</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>86.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="B4">
+        <v>1.9</v>
+      </c>
+      <c r="C4">
+        <v>117.9</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>237.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20000</v>
+      </c>
+      <c r="B5">
+        <v>2.7</v>
+      </c>
+      <c r="C5">
+        <v>208.4</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
+      <c r="E5">
+        <v>494.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15000</v>
-      </c>
-      <c r="B5">
-        <v>1.41</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25000</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>324.7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>885</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20000</v>
-      </c>
-      <c r="B6">
-        <v>1.79</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30000</v>
+      </c>
+      <c r="B7">
+        <v>3.9</v>
+      </c>
+      <c r="C7">
+        <v>472.4</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>1433.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25000</v>
-      </c>
-      <c r="B7">
-        <v>2.38</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35000</v>
+      </c>
+      <c r="B8">
+        <v>4.5</v>
+      </c>
+      <c r="C8">
+        <v>637</v>
+      </c>
+      <c r="D8">
+        <v>1.7</v>
+      </c>
+      <c r="E8">
+        <v>2113.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30000</v>
-      </c>
-      <c r="B8">
-        <v>3.1</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40000</v>
+      </c>
+      <c r="B9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C9">
+        <v>823.9</v>
+      </c>
+      <c r="D9">
+        <v>1.7</v>
+      </c>
+      <c r="E9">
+        <v>2951</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>35000</v>
-      </c>
-      <c r="B9">
-        <v>3.11</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45000</v>
+      </c>
+      <c r="B10">
+        <v>5.8</v>
+      </c>
+      <c r="C10">
+        <v>1047.4000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.9</v>
+      </c>
+      <c r="E10">
+        <v>3809.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>40000</v>
-      </c>
-      <c r="B10">
-        <v>4.41</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50000</v>
+      </c>
+      <c r="B11">
+        <v>6.4</v>
+      </c>
+      <c r="C11">
+        <v>1293.8</v>
+      </c>
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>4896.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>45000</v>
-      </c>
-      <c r="B11">
-        <v>5.21</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>55000</v>
+      </c>
+      <c r="B12">
+        <v>7.9</v>
+      </c>
+      <c r="C12">
+        <v>1654.8</v>
+      </c>
+      <c r="D12">
+        <v>2.6</v>
+      </c>
+      <c r="E12">
+        <v>5955.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50000</v>
-      </c>
-      <c r="B12">
-        <v>5.75</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60000</v>
+      </c>
+      <c r="B13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C13">
+        <v>1877.4</v>
+      </c>
+      <c r="D13">
+        <v>2.7</v>
+      </c>
+      <c r="E13">
+        <v>6984.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55000</v>
-      </c>
-      <c r="B13">
-        <v>6.36</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65000</v>
+      </c>
+      <c r="B14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>2201.9</v>
+      </c>
+      <c r="D14">
+        <v>3.6</v>
+      </c>
+      <c r="E14">
+        <v>8102.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>60000</v>
-      </c>
-      <c r="B14">
-        <v>7.13</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70000</v>
+      </c>
+      <c r="B15">
+        <v>9.6</v>
+      </c>
+      <c r="C15">
+        <v>2629.8</v>
+      </c>
+      <c r="D15">
+        <v>3.4</v>
+      </c>
+      <c r="E15">
+        <v>9339.7999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>65000</v>
-      </c>
-      <c r="B15">
-        <v>7.64</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>75000</v>
+      </c>
+      <c r="B16">
+        <v>10.4</v>
+      </c>
+      <c r="C16">
+        <v>2977.4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10466</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>70000</v>
-      </c>
-      <c r="B16">
-        <v>8.2899999999999991</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>80000</v>
+      </c>
+      <c r="B17">
+        <v>10.7</v>
+      </c>
+      <c r="C17">
+        <v>3441.1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>11788.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>75000</v>
-      </c>
-      <c r="B17">
-        <v>8.7799999999999994</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>85000</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>3812.7</v>
+      </c>
+      <c r="D18">
+        <v>3.8</v>
+      </c>
+      <c r="E18">
+        <v>13037.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>80000</v>
-      </c>
-      <c r="B18">
-        <v>9.44</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90000</v>
+      </c>
+      <c r="B19">
+        <v>12.1</v>
+      </c>
+      <c r="C19">
+        <v>4350.1000000000004</v>
+      </c>
+      <c r="D19">
+        <v>4.5</v>
+      </c>
+      <c r="E19">
+        <v>14393.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>85000</v>
-      </c>
-      <c r="B19">
-        <v>10.11</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>95000</v>
+      </c>
+      <c r="B20">
+        <v>12.4</v>
+      </c>
+      <c r="C20">
+        <v>4849.3</v>
+      </c>
+      <c r="D20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E20">
+        <v>15766.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>90000</v>
-      </c>
-      <c r="B20">
-        <v>10.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="B21">
-        <v>11.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>100000</v>
-      </c>
-      <c r="B22">
-        <v>12.31</v>
+        <v>12.9</v>
+      </c>
+      <c r="C21">
+        <v>5293.9</v>
+      </c>
+      <c r="D21">
+        <v>5.2</v>
+      </c>
+      <c r="E21">
+        <v>17102.900000000001</v>
       </c>
     </row>
   </sheetData>
